--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/20/seed1/result_data_KNN.xlsx
@@ -488,13 +488,13 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>9.084</v>
+        <v>8.742999999999999</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.704000000000001</v>
+        <v>-7.968999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>6.969999999999999</v>
+        <v>6.279000000000001</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -530,7 +530,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>6.182</v>
+        <v>5.668</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -544,13 +544,13 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.586</v>
+        <v>6.01</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.964000000000001</v>
+        <v>-7.965999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +564,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.859999999999999</v>
+        <v>-7.578</v>
       </c>
     </row>
     <row r="10">
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.868</v>
+        <v>-7.072</v>
       </c>
     </row>
     <row r="13">
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.852</v>
+        <v>4.947000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -676,7 +676,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.337999999999999</v>
+        <v>-8.268999999999998</v>
       </c>
     </row>
     <row r="18">
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.454000000000001</v>
+        <v>-8.463000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.94</v>
+        <v>-7.967000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.260000000000002</v>
+        <v>8.24</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.681999999999999</v>
+        <v>-7.853</v>
       </c>
     </row>
     <row r="21">
@@ -726,7 +726,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.668000000000001</v>
+        <v>9.094000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.909999999999999</v>
+        <v>-7.641999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>4.982000000000001</v>
+        <v>5.497999999999999</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.27</v>
+        <v>5.281</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -852,7 +852,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.281999999999999</v>
+        <v>5.209000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -872,7 +872,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.31</v>
+        <v>-7.914</v>
       </c>
     </row>
     <row r="32">
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>5.692</v>
+        <v>6.48</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -984,7 +984,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.218000000000001</v>
+        <v>-7.632</v>
       </c>
     </row>
     <row r="40">
@@ -992,13 +992,13 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.252000000000001</v>
+        <v>9.435999999999998</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.332000000000003</v>
+        <v>-8.019</v>
       </c>
     </row>
     <row r="41">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.704000000000001</v>
+        <v>-7.998</v>
       </c>
     </row>
     <row r="42">
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-7.920000000000002</v>
+        <v>-8.036</v>
       </c>
     </row>
     <row r="43">
@@ -1040,7 +1040,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.038</v>
+        <v>-7.777000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.522</v>
+        <v>5.613</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.542</v>
+        <v>-7.639</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.188</v>
+        <v>-7.651999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -1146,7 +1146,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.447999999999999</v>
+        <v>5.377999999999999</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.905999999999999</v>
+        <v>5.776</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1194,7 +1194,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.843999999999999</v>
+        <v>-8.135</v>
       </c>
     </row>
     <row r="55">
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.112</v>
+        <v>5.040999999999999</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>5.054</v>
+        <v>5.298</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1300,13 +1300,13 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>4.888</v>
+        <v>5.395999999999999</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-8.370000000000001</v>
+        <v>-8.252000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -1320,7 +1320,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-6.868</v>
+        <v>-7.253</v>
       </c>
     </row>
     <row r="64">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.659999999999999</v>
+        <v>-7.263</v>
       </c>
     </row>
     <row r="65">
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.35</v>
+        <v>5.211</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.170000000000002</v>
+        <v>7.224000000000001</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1468,7 +1468,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.050000000000001</v>
+        <v>9.165000000000001</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1502,7 +1502,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.241999999999999</v>
+        <v>-7.748</v>
       </c>
     </row>
     <row r="77">
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>5.715999999999999</v>
+        <v>6.241000000000001</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1572,7 +1572,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.862</v>
+        <v>-8.109999999999999</v>
       </c>
     </row>
     <row r="82">
@@ -1614,7 +1614,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.327999999999999</v>
+        <v>-8.372</v>
       </c>
     </row>
     <row r="85">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.209999999999999</v>
+        <v>-8.260999999999999</v>
       </c>
     </row>
     <row r="90">
@@ -1720,7 +1720,7 @@
         <v>-21.3</v>
       </c>
       <c r="B92" t="n">
-        <v>4.932</v>
+        <v>5.178</v>
       </c>
       <c r="C92" t="n">
         <v>-9.789999999999999</v>
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.078</v>
+        <v>-7.640000000000001</v>
       </c>
     </row>
     <row r="95">
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>6.372</v>
+        <v>6.383</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
